--- a/月額_分割統合.xlsx
+++ b/月額_分割統合.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247883B3-43E6-4954-85A2-39D5DC66AC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EFFC8D-D614-43FE-97FE-40BB7DDFFA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="480" windowWidth="24690" windowHeight="14325" tabRatio="835" xr2:uid="{5AA50BA7-59BB-4F8D-9D40-E32F9614EBD2}"/>
+    <workbookView xWindow="2190" yWindow="585" windowWidth="24690" windowHeight="14325" tabRatio="835" xr2:uid="{5AA50BA7-59BB-4F8D-9D40-E32F9614EBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="結合" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet2!$A$1:$F$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合!$A$1:$G$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合!$A$1:$G$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'結合 (1月)'!$A$1:$G$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'結合+おまとめ'!$A$1:$G$253</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">自社分!$A$1:$G$57</definedName>
@@ -3766,13 +3766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EB30D1-F83A-4008-906C-8B50A24D9748}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3809,7 +3809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>118580</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>118580</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>118580</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>118580</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>118580</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>1992150</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>1992150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>1992150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>1992150</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>1992150</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1115950</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>1115950</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>1115950</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>1115950</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>1115950</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>150390</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>150390</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>150390</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>150390</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>150390</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>207350</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>47432</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>47432</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>47432</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>47432</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>47432</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>896467.5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>896467.5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>896467.5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>896467.5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>896467.5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>557975</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>557975</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>557975</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>557975</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>557975</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>75195</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>75195</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>75195</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>75195</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>75195</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>13</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>153100</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>13</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>13680</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>13680</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>13680</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>13680</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>13680</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>11640</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>11640</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>6</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>11640</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>11640</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>11640</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>3288972</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>6</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>1064375</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>848225</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>848225</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>848225</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>373854</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>305964</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>305964</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>207350</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>207350</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>207350</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>207350</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -7064,6 +7064,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G137" xr:uid="{46EB30D1-F83A-4008-906C-8B50A24D9748}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="分割"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="全体売上"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/月額_分割統合.xlsx
+++ b/月額_分割統合.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE0EEB-C79E-4BBF-8221-626B7D042F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301E182-C9F7-42F2-ACC1-32B497E2C559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="0" windowWidth="25110" windowHeight="14610" tabRatio="835" activeTab="3" xr2:uid="{5AA50BA7-59BB-4F8D-9D40-E32F9614EBD2}"/>
+    <workbookView xWindow="6660" yWindow="180" windowWidth="26430" windowHeight="14835" tabRatio="835" xr2:uid="{5AA50BA7-59BB-4F8D-9D40-E32F9614EBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="結合" sheetId="11" r:id="rId1"/>
@@ -39,9 +39,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId16"/>
-    <pivotCache cacheId="35" r:id="rId17"/>
-    <pivotCache cacheId="40" r:id="rId18"/>
+    <pivotCache cacheId="91" r:id="rId16"/>
+    <pivotCache cacheId="92" r:id="rId17"/>
+    <pivotCache cacheId="93" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5397,7 +5397,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3982FB18-8D3A-4F4C-9EFA-B5B27766D0BB}" name="ピボットテーブル1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3982FB18-8D3A-4F4C-9EFA-B5B27766D0BB}" name="ピボットテーブル1" cacheId="93" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5544,7 +5544,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58923439-4944-4F8E-A20F-189C571C2D3C}" name="ピボットテーブル17" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58923439-4944-4F8E-A20F-189C571C2D3C}" name="ピボットテーブル17" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:M19" firstHeaderRow="1" firstDataRow="2" firstDataCol="4"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5762,7 +5762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3095766F-7AF7-457F-8459-66329CC6A98E}" name="ピボットテーブル10" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3095766F-7AF7-457F-8459-66329CC6A98E}" name="ピボットテーブル10" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:K16" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -5905,7 +5905,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A499D84-3EC2-4DB5-B267-4615C216EDD7}" name="ピボットテーブル11" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A499D84-3EC2-4DB5-B267-4615C216EDD7}" name="ピボットテーブル11" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:M18" firstHeaderRow="0" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6483,10 +6483,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G137" sqref="A2:G137"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6498,9 +6498,10 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -6546,8 +6547,9 @@
       <c r="G2" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -6570,8 +6572,9 @@
       <c r="G3" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6594,8 +6597,9 @@
       <c r="G4" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6618,8 +6622,9 @@
       <c r="G5" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -6642,8 +6647,9 @@
       <c r="G6" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6666,8 +6672,9 @@
       <c r="G7" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6690,8 +6697,9 @@
       <c r="G8" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -6714,8 +6722,9 @@
       <c r="G9" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -6738,8 +6747,9 @@
       <c r="G10" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6762,8 +6772,9 @@
       <c r="G11" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6785,8 +6796,9 @@
       <c r="G12" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -6808,8 +6820,9 @@
       <c r="G13" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6831,8 +6844,9 @@
       <c r="G14" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -6854,8 +6868,9 @@
       <c r="G15" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -6877,8 +6892,9 @@
       <c r="G16" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -6901,8 +6917,9 @@
       <c r="G17" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -6925,8 +6942,9 @@
       <c r="G18" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -6949,8 +6967,9 @@
       <c r="G19" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -6973,8 +6992,9 @@
       <c r="G20" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -6997,8 +7017,9 @@
       <c r="G21" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -7021,8 +7042,9 @@
       <c r="G22" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -7045,8 +7067,9 @@
       <c r="G23" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -7069,8 +7092,9 @@
       <c r="G24" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -7093,8 +7117,9 @@
       <c r="G25" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -7117,8 +7142,9 @@
       <c r="G26" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -7141,8 +7167,9 @@
       <c r="G27" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -7165,8 +7192,9 @@
       <c r="G28" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -7189,8 +7217,9 @@
       <c r="G29" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -7213,8 +7242,9 @@
       <c r="G30" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -7237,8 +7267,9 @@
       <c r="G31" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -7261,8 +7292,9 @@
       <c r="G32" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -7285,8 +7317,9 @@
       <c r="G33" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -7309,8 +7342,9 @@
       <c r="G34" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -7333,8 +7367,9 @@
       <c r="G35" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -7357,8 +7392,9 @@
       <c r="G36" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -7381,8 +7417,9 @@
       <c r="G37" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -7405,8 +7442,9 @@
       <c r="G38" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -7429,8 +7467,9 @@
       <c r="G39" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -7453,8 +7492,9 @@
       <c r="G40" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -7477,8 +7517,9 @@
       <c r="G41" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -7501,8 +7542,9 @@
       <c r="G42" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -7525,8 +7567,9 @@
       <c r="G43" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -7549,8 +7592,9 @@
       <c r="G44" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -7573,8 +7617,9 @@
       <c r="G45" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -7597,8 +7642,9 @@
       <c r="G46" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -7621,8 +7667,9 @@
       <c r="G47" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -7645,8 +7692,9 @@
       <c r="G48" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -7669,8 +7717,9 @@
       <c r="G49" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -7693,8 +7742,9 @@
       <c r="G50" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -7717,8 +7767,9 @@
       <c r="G51" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -7741,8 +7792,9 @@
       <c r="G52" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -7765,8 +7817,9 @@
       <c r="G53" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -7789,8 +7842,9 @@
       <c r="G54" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -7813,8 +7867,9 @@
       <c r="G55" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -7837,8 +7892,9 @@
       <c r="G56" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -7861,8 +7917,9 @@
       <c r="G57" s="1">
         <v>6577944</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -7885,8 +7942,9 @@
       <c r="G58" s="1">
         <v>2128750</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -7909,8 +7967,9 @@
       <c r="G59" s="1">
         <v>1696450</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -7933,8 +7992,9 @@
       <c r="G60" s="1">
         <v>1696450</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -7957,8 +8017,9 @@
       <c r="G61" s="1">
         <v>1696450</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -7981,8 +8042,9 @@
       <c r="G62" s="1">
         <v>623090</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -8005,8 +8067,9 @@
       <c r="G63" s="1">
         <v>509940</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -8029,8 +8092,9 @@
       <c r="G64" s="1">
         <v>509940</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -8053,8 +8117,9 @@
       <c r="G65" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -8077,8 +8142,9 @@
       <c r="G66" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -8101,8 +8167,9 @@
       <c r="G67" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -8125,8 +8192,9 @@
       <c r="G68" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -8149,8 +8217,9 @@
       <c r="G69" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
@@ -8173,8 +8242,9 @@
       <c r="G70" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -8197,8 +8267,9 @@
       <c r="G71" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
@@ -8221,8 +8292,9 @@
       <c r="G72" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -8245,8 +8317,9 @@
       <c r="G73" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -8269,8 +8342,9 @@
       <c r="G74" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
@@ -8291,10 +8365,11 @@
         <v>66</v>
       </c>
       <c r="G75" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
@@ -8315,10 +8390,11 @@
         <v>67</v>
       </c>
       <c r="G76" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -8339,10 +8415,11 @@
         <v>68</v>
       </c>
       <c r="G77" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
@@ -8363,10 +8440,11 @@
         <v>116</v>
       </c>
       <c r="G78" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -8387,10 +8465,11 @@
         <v>117</v>
       </c>
       <c r="G79" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -8412,8 +8491,9 @@
       <c r="G80" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
@@ -8435,8 +8515,9 @@
       <c r="G81" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -8458,8 +8539,9 @@
       <c r="G82" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -8481,8 +8563,9 @@
       <c r="G83" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -8504,8 +8587,9 @@
       <c r="G84" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
@@ -8528,8 +8612,9 @@
       <c r="G85" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -8552,8 +8637,9 @@
       <c r="G86" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -8576,8 +8662,9 @@
       <c r="G87" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -8600,8 +8687,9 @@
       <c r="G88" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -8624,8 +8712,9 @@
       <c r="G89" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -8648,8 +8737,9 @@
       <c r="G90" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
@@ -8672,8 +8762,9 @@
       <c r="G91" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -8696,8 +8787,9 @@
       <c r="G92" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -8720,8 +8812,9 @@
       <c r="G93" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -8744,8 +8837,9 @@
       <c r="G94" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -8768,8 +8862,9 @@
       <c r="G95" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
@@ -8792,8 +8887,9 @@
       <c r="G96" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -8816,8 +8912,9 @@
       <c r="G97" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
@@ -8840,8 +8937,9 @@
       <c r="G98" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>13</v>
       </c>
@@ -8864,8 +8962,9 @@
       <c r="G99" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
@@ -8888,8 +8987,9 @@
       <c r="G100" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -8912,8 +9012,9 @@
       <c r="G101" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -8936,8 +9037,9 @@
       <c r="G102" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -8960,8 +9062,9 @@
       <c r="G103" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -8984,8 +9087,9 @@
       <c r="G104" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -9008,8 +9112,9 @@
       <c r="G105" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -9032,8 +9137,9 @@
       <c r="G106" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -9056,8 +9162,9 @@
       <c r="G107" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -9080,8 +9187,9 @@
       <c r="G108" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -9104,8 +9212,9 @@
       <c r="G109" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
@@ -9128,8 +9237,9 @@
       <c r="G110" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>13</v>
       </c>
@@ -9152,8 +9262,9 @@
       <c r="G111" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -9176,8 +9287,9 @@
       <c r="G112" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -9200,8 +9312,9 @@
       <c r="G113" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -9224,8 +9337,9 @@
       <c r="G114" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
@@ -9248,8 +9362,9 @@
       <c r="G115" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
@@ -9272,8 +9387,9 @@
       <c r="G116" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H116" s="8"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -9296,8 +9412,9 @@
       <c r="G117" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -9320,8 +9437,9 @@
       <c r="G118" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H118" s="8"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -9344,8 +9462,9 @@
       <c r="G119" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -9368,8 +9487,9 @@
       <c r="G120" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -9392,8 +9512,9 @@
       <c r="G121" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>6</v>
       </c>
@@ -9416,8 +9537,9 @@
       <c r="G122" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -9440,8 +9562,9 @@
       <c r="G123" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
@@ -9464,8 +9587,9 @@
       <c r="G124" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
@@ -9488,8 +9612,9 @@
       <c r="G125" s="25">
         <v>3288972</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>6</v>
       </c>
@@ -9512,8 +9637,9 @@
       <c r="G126" s="25">
         <v>1064375</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -9536,8 +9662,9 @@
       <c r="G127" s="25">
         <v>848225</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
@@ -9560,8 +9687,9 @@
       <c r="G128" s="25">
         <v>848225</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -9584,8 +9712,9 @@
       <c r="G129" s="25">
         <v>848225</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -9608,8 +9737,9 @@
       <c r="G130" s="25">
         <v>373854</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -9632,8 +9762,9 @@
       <c r="G131" s="25">
         <v>305964</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H131" s="8"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -9656,8 +9787,9 @@
       <c r="G132" s="25">
         <v>305964</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -9680,8 +9812,9 @@
       <c r="G133" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -9704,8 +9837,9 @@
       <c r="G134" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H134" s="8"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -9728,8 +9862,9 @@
       <c r="G135" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H135" s="8"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -9752,8 +9887,9 @@
       <c r="G136" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -9776,6 +9912,7 @@
       <c r="G137" s="25">
         <v>207350</v>
       </c>
+      <c r="H137" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G137" xr:uid="{46EB30D1-F83A-4008-906C-8B50A24D9748}"/>
@@ -22427,10 +22564,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22442,10 +22579,11 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -22468,7 +22606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -22491,8 +22629,9 @@
       <c r="G2" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -22515,8 +22654,9 @@
       <c r="G3" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -22538,8 +22678,9 @@
       <c r="G4" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -22553,7 +22694,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>+D5&amp;"%"</f>
+        <f t="shared" ref="E5:E17" si="0">+D5&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -22562,8 +22703,9 @@
       <c r="G5" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -22577,7 +22719,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>+D6&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>50%</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -22586,8 +22728,9 @@
       <c r="G6" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -22601,7 +22744,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>+D7&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>60%</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -22610,8 +22753,9 @@
       <c r="G7" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -22625,7 +22769,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>+D8&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>50%</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -22634,8 +22778,9 @@
       <c r="G8" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -22649,7 +22794,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>+D9&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>100%</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -22658,8 +22803,9 @@
       <c r="G9" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -22673,7 +22819,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>+D10&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>50%</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -22682,8 +22828,9 @@
       <c r="G10" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -22697,7 +22844,7 @@
         <v>60</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>+D11&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>60%</v>
       </c>
       <c r="F11" s="29" t="s">
@@ -22706,8 +22853,9 @@
       <c r="G11" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -22721,7 +22869,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>+D12&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>40%</v>
       </c>
       <c r="F12" s="29" t="s">
@@ -22730,8 +22878,9 @@
       <c r="G12" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -22745,7 +22894,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>+D13&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>50%</v>
       </c>
       <c r="F13" s="29" t="s">
@@ -22754,8 +22903,9 @@
       <c r="G13" s="1">
         <v>6577944</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -22769,7 +22919,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>+D14&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>60%</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -22778,8 +22928,9 @@
       <c r="G14" s="1">
         <v>623090</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -22793,7 +22944,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>+D15&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>100%</v>
       </c>
       <c r="F15" s="29" t="s">
@@ -22802,8 +22953,9 @@
       <c r="G15" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -22817,7 +22969,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>+D16&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>40%</v>
       </c>
       <c r="F16" s="29" t="s">
@@ -22826,8 +22978,9 @@
       <c r="G16" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -22841,17 +22994,18 @@
         <v>45</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>+D17&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>45%</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -22873,8 +23027,9 @@
       <c r="G18" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -22888,7 +23043,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>+D19&amp;"%"</f>
+        <f t="shared" ref="E19:E33" si="1">+D19&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F19" s="29" t="s">
@@ -22897,8 +23052,9 @@
       <c r="G19" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -22912,7 +23068,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>+D20&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>50%</v>
       </c>
       <c r="F20" s="29" t="s">
@@ -22921,8 +23077,9 @@
       <c r="G20" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -22936,7 +23093,7 @@
         <v>60</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>+D21&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>60%</v>
       </c>
       <c r="F21" s="29" t="s">
@@ -22945,8 +23102,9 @@
       <c r="G21" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -22960,7 +23118,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>+D22&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>50%</v>
       </c>
       <c r="F22" s="29" t="s">
@@ -22969,8 +23127,9 @@
       <c r="G22" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -22984,7 +23143,7 @@
         <v>100</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>+D23&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>100%</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -22993,8 +23152,9 @@
       <c r="G23" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -23008,7 +23168,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>+D24&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>50%</v>
       </c>
       <c r="F24" s="29" t="s">
@@ -23017,8 +23177,9 @@
       <c r="G24" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -23032,7 +23193,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>+D25&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>60%</v>
       </c>
       <c r="F25" s="29" t="s">
@@ -23041,8 +23202,9 @@
       <c r="G25" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -23056,7 +23218,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>+D26&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>40%</v>
       </c>
       <c r="F26" s="29" t="s">
@@ -23065,8 +23227,9 @@
       <c r="G26" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -23080,7 +23243,7 @@
         <v>50</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>+D27&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>50%</v>
       </c>
       <c r="F27" s="29" t="s">
@@ -23089,8 +23252,9 @@
       <c r="G27" s="25">
         <v>3288972</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -23104,7 +23268,7 @@
         <v>60</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>+D28&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>60%</v>
       </c>
       <c r="F28" s="29" t="s">
@@ -23113,8 +23277,9 @@
       <c r="G28" s="25">
         <v>373854</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -23128,7 +23293,7 @@
         <v>100</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>+D29&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>100%</v>
       </c>
       <c r="F29" s="29" t="s">
@@ -23137,8 +23302,9 @@
       <c r="G29" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
         <v>70</v>
       </c>
@@ -23152,7 +23318,7 @@
         <v>45</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>+D30&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>45%</v>
       </c>
       <c r="F30" s="28" t="s">
@@ -23161,8 +23327,9 @@
       <c r="G30" s="1">
         <v>38100</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
         <v>70</v>
       </c>
@@ -23176,7 +23343,7 @@
         <v>45</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>+D31&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>45%</v>
       </c>
       <c r="F31" s="28" t="s">
@@ -23185,8 +23352,9 @@
       <c r="G31" s="1">
         <v>17145</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -23200,7 +23368,7 @@
         <v>40</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>+D32&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>40%</v>
       </c>
       <c r="F32" s="29" t="s">
@@ -23209,8 +23377,9 @@
       <c r="G32" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -23224,7 +23393,7 @@
         <v>45</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>+D33&amp;"%"</f>
+        <f t="shared" si="1"/>
         <v>45%</v>
       </c>
       <c r="F33" s="29" t="s">
@@ -23233,8 +23402,9 @@
       <c r="G33" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -23256,8 +23426,9 @@
       <c r="G34" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -23271,7 +23442,7 @@
         <v>50</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>+D35&amp;"%"</f>
+        <f t="shared" ref="E35:E47" si="2">+D35&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F35" s="29" t="s">
@@ -23280,8 +23451,9 @@
       <c r="G35" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -23295,7 +23467,7 @@
         <v>50</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>+D36&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>50%</v>
       </c>
       <c r="F36" s="29" t="s">
@@ -23304,8 +23476,9 @@
       <c r="G36" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -23319,7 +23492,7 @@
         <v>60</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>+D37&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>60%</v>
       </c>
       <c r="F37" s="29" t="s">
@@ -23328,8 +23501,9 @@
       <c r="G37" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -23343,7 +23517,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>+D38&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>50%</v>
       </c>
       <c r="F38" s="29" t="s">
@@ -23352,8 +23526,9 @@
       <c r="G38" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -23367,7 +23542,7 @@
         <v>100</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>+D39&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>100%</v>
       </c>
       <c r="F39" s="29" t="s">
@@ -23376,8 +23551,9 @@
       <c r="G39" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -23391,7 +23567,7 @@
         <v>50</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>+D40&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>50%</v>
       </c>
       <c r="F40" s="29" t="s">
@@ -23400,8 +23576,9 @@
       <c r="G40" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -23415,7 +23592,7 @@
         <v>60</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>+D41&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>60%</v>
       </c>
       <c r="F41" s="29" t="s">
@@ -23424,8 +23601,9 @@
       <c r="G41" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -23439,7 +23617,7 @@
         <v>40</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>+D42&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>40%</v>
       </c>
       <c r="F42" s="29" t="s">
@@ -23448,8 +23626,9 @@
       <c r="G42" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -23463,7 +23642,7 @@
         <v>50</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>+D43&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>50%</v>
       </c>
       <c r="F43" s="29" t="s">
@@ -23472,8 +23651,9 @@
       <c r="G43" s="1">
         <v>2128750</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -23487,7 +23667,7 @@
         <v>60</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>+D44&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>60%</v>
       </c>
       <c r="F44" s="29" t="s">
@@ -23496,8 +23676,9 @@
       <c r="G44" s="1">
         <v>509940</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -23511,7 +23692,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>+D45&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>100%</v>
       </c>
       <c r="F45" s="29" t="s">
@@ -23520,8 +23701,9 @@
       <c r="G45" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -23535,7 +23717,7 @@
         <v>40</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>+D46&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>40%</v>
       </c>
       <c r="F46" s="29" t="s">
@@ -23544,8 +23726,9 @@
       <c r="G46" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -23559,17 +23742,18 @@
         <v>45</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>+D47&amp;"%"</f>
+        <f t="shared" si="2"/>
         <v>45%</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>67</v>
       </c>
       <c r="G47" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -23591,8 +23775,9 @@
       <c r="G48" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -23606,7 +23791,7 @@
         <v>50</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>+D49&amp;"%"</f>
+        <f t="shared" ref="E49:E67" si="3">+D49&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F49" s="29" t="s">
@@ -23615,8 +23800,9 @@
       <c r="G49" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -23630,7 +23816,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>+D50&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>50%</v>
       </c>
       <c r="F50" s="29" t="s">
@@ -23639,8 +23825,9 @@
       <c r="G50" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -23654,7 +23841,7 @@
         <v>60</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>+D51&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>60%</v>
       </c>
       <c r="F51" s="29" t="s">
@@ -23663,8 +23850,9 @@
       <c r="G51" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -23678,7 +23866,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>+D52&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>50%</v>
       </c>
       <c r="F52" s="29" t="s">
@@ -23687,8 +23875,9 @@
       <c r="G52" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -23702,7 +23891,7 @@
         <v>100</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>+D53&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>100%</v>
       </c>
       <c r="F53" s="29" t="s">
@@ -23711,8 +23900,9 @@
       <c r="G53" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -23726,7 +23916,7 @@
         <v>50</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>+D54&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>50%</v>
       </c>
       <c r="F54" s="29" t="s">
@@ -23735,8 +23925,9 @@
       <c r="G54" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -23750,7 +23941,7 @@
         <v>60</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>+D55&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>60%</v>
       </c>
       <c r="F55" s="29" t="s">
@@ -23759,8 +23950,9 @@
       <c r="G55" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -23774,7 +23966,7 @@
         <v>40</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>+D56&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>40%</v>
       </c>
       <c r="F56" s="29" t="s">
@@ -23783,8 +23975,9 @@
       <c r="G56" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -23798,7 +23991,7 @@
         <v>50</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>+D57&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>50%</v>
       </c>
       <c r="F57" s="29" t="s">
@@ -23807,8 +24000,9 @@
       <c r="G57" s="25">
         <v>1064375</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -23822,7 +24016,7 @@
         <v>60</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>+D58&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>60%</v>
       </c>
       <c r="F58" s="29" t="s">
@@ -23831,8 +24025,9 @@
       <c r="G58" s="25">
         <v>305964</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -23846,7 +24041,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>+D59&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>100%</v>
       </c>
       <c r="F59" s="29" t="s">
@@ -23855,8 +24050,9 @@
       <c r="G59" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="24" t="s">
         <v>70</v>
       </c>
@@ -23870,7 +24066,7 @@
         <v>45</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>+D60&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>45%</v>
       </c>
       <c r="F60" s="28" t="s">
@@ -23879,8 +24075,9 @@
       <c r="G60" s="1">
         <v>1544400</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="24" t="s">
         <v>70</v>
       </c>
@@ -23894,7 +24091,7 @@
         <v>45</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>+D61&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>45%</v>
       </c>
       <c r="F61" s="28" t="s">
@@ -23903,8 +24100,9 @@
       <c r="G61" s="1">
         <v>533400</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="24" t="s">
         <v>70</v>
       </c>
@@ -23918,7 +24116,7 @@
         <v>45</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>+D62&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>45%</v>
       </c>
       <c r="F62" s="28" t="s">
@@ -23927,8 +24125,9 @@
       <c r="G62" s="1">
         <v>178200</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="24" t="s">
         <v>70</v>
       </c>
@@ -23942,7 +24141,7 @@
         <v>45</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>+D63&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>45%</v>
       </c>
       <c r="F63" s="28" t="s">
@@ -23951,8 +24150,9 @@
       <c r="G63" s="1">
         <v>694980</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="24" t="s">
         <v>70</v>
       </c>
@@ -23966,7 +24166,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>+D64&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>45%</v>
       </c>
       <c r="F64" s="28" t="s">
@@ -23975,8 +24175,9 @@
       <c r="G64" s="1">
         <v>240030</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="24" t="s">
         <v>70</v>
       </c>
@@ -23990,7 +24191,7 @@
         <v>45</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>+D65&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>45%</v>
       </c>
       <c r="F65" s="28" t="s">
@@ -23999,8 +24200,9 @@
       <c r="G65" s="1">
         <v>80190</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -24014,7 +24216,7 @@
         <v>40</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>+D66&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>40%</v>
       </c>
       <c r="F66" s="29" t="s">
@@ -24023,8 +24225,9 @@
       <c r="G66" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -24038,7 +24241,7 @@
         <v>45</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>+D67&amp;"%"</f>
+        <f t="shared" si="3"/>
         <v>45%</v>
       </c>
       <c r="F67" s="29" t="s">
@@ -24047,8 +24250,9 @@
       <c r="G67" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -24070,8 +24274,9 @@
       <c r="G68" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -24085,7 +24290,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>+D69&amp;"%"</f>
+        <f t="shared" ref="E69:E81" si="4">+D69&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F69" s="29" t="s">
@@ -24094,8 +24299,9 @@
       <c r="G69" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
@@ -24109,7 +24315,7 @@
         <v>50</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>+D70&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>50%</v>
       </c>
       <c r="F70" s="29" t="s">
@@ -24118,8 +24324,9 @@
       <c r="G70" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -24133,7 +24340,7 @@
         <v>60</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>+D71&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>60%</v>
       </c>
       <c r="F71" s="29" t="s">
@@ -24142,8 +24349,9 @@
       <c r="G71" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
@@ -24157,7 +24365,7 @@
         <v>50</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>+D72&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>50%</v>
       </c>
       <c r="F72" s="29" t="s">
@@ -24166,8 +24374,9 @@
       <c r="G72" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -24181,7 +24390,7 @@
         <v>100</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>+D73&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>100%</v>
       </c>
       <c r="F73" s="29" t="s">
@@ -24190,8 +24399,9 @@
       <c r="G73" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -24205,7 +24415,7 @@
         <v>50</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>+D74&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>50%</v>
       </c>
       <c r="F74" s="29" t="s">
@@ -24214,8 +24424,9 @@
       <c r="G74" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
@@ -24229,7 +24440,7 @@
         <v>60</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>+D75&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>60%</v>
       </c>
       <c r="F75" s="29" t="s">
@@ -24238,8 +24449,9 @@
       <c r="G75" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -24253,7 +24465,7 @@
         <v>40</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>+D76&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>40%</v>
       </c>
       <c r="F76" s="29" t="s">
@@ -24262,8 +24474,9 @@
       <c r="G76" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -24277,7 +24490,7 @@
         <v>50</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>+D77&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>50%</v>
       </c>
       <c r="F77" s="29" t="s">
@@ -24286,8 +24499,9 @@
       <c r="G77" s="1">
         <v>1696450</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -24301,7 +24515,7 @@
         <v>60</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>+D78&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>60%</v>
       </c>
       <c r="F78" s="29" t="s">
@@ -24310,8 +24524,9 @@
       <c r="G78" s="1">
         <v>509940</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -24325,7 +24540,7 @@
         <v>100</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>+D79&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>100%</v>
       </c>
       <c r="F79" s="29" t="s">
@@ -24334,8 +24549,9 @@
       <c r="G79" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -24349,7 +24565,7 @@
         <v>40</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>+D80&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>40%</v>
       </c>
       <c r="F80" s="29" t="s">
@@ -24358,8 +24574,9 @@
       <c r="G80" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
@@ -24373,17 +24590,18 @@
         <v>45</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>+D81&amp;"%"</f>
+        <f t="shared" si="4"/>
         <v>45%</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G81" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -24405,8 +24623,9 @@
       <c r="G82" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -24420,7 +24639,7 @@
         <v>50</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>+D83&amp;"%"</f>
+        <f t="shared" ref="E83:E105" si="5">+D83&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F83" s="29" t="s">
@@ -24429,8 +24648,9 @@
       <c r="G83" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -24444,7 +24664,7 @@
         <v>50</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>+D84&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>50%</v>
       </c>
       <c r="F84" s="29" t="s">
@@ -24453,8 +24673,9 @@
       <c r="G84" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
@@ -24468,7 +24689,7 @@
         <v>60</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>+D85&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>60%</v>
       </c>
       <c r="F85" s="29" t="s">
@@ -24477,8 +24698,9 @@
       <c r="G85" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -24492,7 +24714,7 @@
         <v>50</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>+D86&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>50%</v>
       </c>
       <c r="F86" s="29" t="s">
@@ -24501,8 +24723,9 @@
       <c r="G86" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -24516,7 +24739,7 @@
         <v>100</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>+D87&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>100%</v>
       </c>
       <c r="F87" s="29" t="s">
@@ -24525,8 +24748,9 @@
       <c r="G87" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -24540,7 +24764,7 @@
         <v>50</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>+D88&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>50%</v>
       </c>
       <c r="F88" s="29" t="s">
@@ -24549,8 +24773,9 @@
       <c r="G88" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -24564,7 +24789,7 @@
         <v>60</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>+D89&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>60%</v>
       </c>
       <c r="F89" s="29" t="s">
@@ -24573,8 +24798,9 @@
       <c r="G89" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -24588,7 +24814,7 @@
         <v>40</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>+D90&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>40%</v>
       </c>
       <c r="F90" s="29" t="s">
@@ -24597,8 +24823,9 @@
       <c r="G90" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -24612,7 +24839,7 @@
         <v>50</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>+D91&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>50%</v>
       </c>
       <c r="F91" s="29" t="s">
@@ -24621,8 +24848,9 @@
       <c r="G91" s="25">
         <v>848225</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -24636,7 +24864,7 @@
         <v>60</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>+D92&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>60%</v>
       </c>
       <c r="F92" s="29" t="s">
@@ -24645,8 +24873,9 @@
       <c r="G92" s="25">
         <v>305964</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -24660,7 +24889,7 @@
         <v>100</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>+D93&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>100%</v>
       </c>
       <c r="F93" s="29" t="s">
@@ -24669,8 +24898,9 @@
       <c r="G93" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="24" t="s">
         <v>70</v>
       </c>
@@ -24684,7 +24914,7 @@
         <v>45</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>+D94&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F94" s="28" t="s">
@@ -24693,8 +24923,9 @@
       <c r="G94" s="1">
         <v>2019600</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="24" t="s">
         <v>70</v>
       </c>
@@ -24708,7 +24939,7 @@
         <v>45</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>+D95&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F95" s="28" t="s">
@@ -24717,8 +24948,9 @@
       <c r="G95" s="1">
         <v>2990850</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="24" t="s">
         <v>70</v>
       </c>
@@ -24732,7 +24964,7 @@
         <v>45</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>+D96&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F96" s="28" t="s">
@@ -24741,8 +24973,9 @@
       <c r="G96" s="1">
         <v>56610</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="24" t="s">
         <v>70</v>
       </c>
@@ -24756,7 +24989,7 @@
         <v>45</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>+D97&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F97" s="28" t="s">
@@ -24765,8 +24998,9 @@
       <c r="G97" s="1">
         <v>198000</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="24" t="s">
         <v>70</v>
       </c>
@@ -24780,7 +25014,7 @@
         <v>45</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>+D98&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F98" s="28" t="s">
@@ -24789,8 +25023,9 @@
       <c r="G98" s="1">
         <v>76200</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="24" t="s">
         <v>70</v>
       </c>
@@ -24804,7 +25039,7 @@
         <v>45</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>+D99&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F99" s="28" t="s">
@@ -24813,8 +25048,9 @@
       <c r="G99" s="1">
         <v>908820</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="24" t="s">
         <v>70</v>
       </c>
@@ -24828,17 +25064,18 @@
         <v>45</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>+D100&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F100" s="28" t="s">
         <v>68</v>
       </c>
       <c r="G100" s="1">
-        <v>1345882.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1345882</v>
+      </c>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="24" t="s">
         <v>70</v>
       </c>
@@ -24852,17 +25089,18 @@
         <v>45</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>+D101&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F101" s="28" t="s">
         <v>68</v>
       </c>
       <c r="G101" s="1">
-        <v>25474.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+        <v>25474</v>
+      </c>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="24" t="s">
         <v>70</v>
       </c>
@@ -24876,7 +25114,7 @@
         <v>45</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>+D102&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F102" s="28" t="s">
@@ -24885,8 +25123,9 @@
       <c r="G102" s="1">
         <v>89100</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="24" t="s">
         <v>70</v>
       </c>
@@ -24900,7 +25139,7 @@
         <v>45</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>+D103&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F103" s="28" t="s">
@@ -24909,8 +25148,9 @@
       <c r="G103" s="1">
         <v>34290</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -24924,7 +25164,7 @@
         <v>40</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>+D104&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>40%</v>
       </c>
       <c r="F104" s="29" t="s">
@@ -24933,8 +25173,9 @@
       <c r="G104" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -24948,7 +25189,7 @@
         <v>45</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>+D105&amp;"%"</f>
+        <f t="shared" si="5"/>
         <v>45%</v>
       </c>
       <c r="F105" s="29" t="s">
@@ -24957,8 +25198,9 @@
       <c r="G105" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -24980,8 +25222,9 @@
       <c r="G106" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -24995,7 +25238,7 @@
         <v>50</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>+D107&amp;"%"</f>
+        <f t="shared" ref="E107:E118" si="6">+D107&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F107" s="29" t="s">
@@ -25004,8 +25247,9 @@
       <c r="G107" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -25019,7 +25263,7 @@
         <v>50</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>+D108&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>50%</v>
       </c>
       <c r="F108" s="29" t="s">
@@ -25028,8 +25272,9 @@
       <c r="G108" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -25043,7 +25288,7 @@
         <v>60</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>+D109&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>60%</v>
       </c>
       <c r="F109" s="29" t="s">
@@ -25052,8 +25297,9 @@
       <c r="G109" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
@@ -25067,7 +25313,7 @@
         <v>50</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>+D110&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>50%</v>
       </c>
       <c r="F110" s="29" t="s">
@@ -25076,8 +25322,9 @@
       <c r="G110" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>13</v>
       </c>
@@ -25091,7 +25338,7 @@
         <v>100</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>+D111&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>100%</v>
       </c>
       <c r="F111" s="29" t="s">
@@ -25100,8 +25347,9 @@
       <c r="G111" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -25115,7 +25363,7 @@
         <v>50</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>+D112&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>50%</v>
       </c>
       <c r="F112" s="29" t="s">
@@ -25124,8 +25372,9 @@
       <c r="G112" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -25139,7 +25388,7 @@
         <v>60</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>+D113&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>60%</v>
       </c>
       <c r="F113" s="29" t="s">
@@ -25148,8 +25397,9 @@
       <c r="G113" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -25163,7 +25413,7 @@
         <v>40</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>+D114&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>40%</v>
       </c>
       <c r="F114" s="29" t="s">
@@ -25172,8 +25422,9 @@
       <c r="G114" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -25187,7 +25438,7 @@
         <v>50</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>+D115&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>50%</v>
       </c>
       <c r="F115" s="29" t="s">
@@ -25196,8 +25447,9 @@
       <c r="G115" s="1">
         <v>1696450</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
@@ -25211,7 +25463,7 @@
         <v>100</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>+D116&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>100%</v>
       </c>
       <c r="F116" s="29" t="s">
@@ -25220,8 +25472,9 @@
       <c r="G116" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H116" s="8"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -25235,7 +25488,7 @@
         <v>40</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>+D117&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>40%</v>
       </c>
       <c r="F117" s="29" t="s">
@@ -25244,8 +25497,9 @@
       <c r="G117" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -25259,17 +25513,18 @@
         <v>45</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>+D118&amp;"%"</f>
+        <f t="shared" si="6"/>
         <v>45%</v>
       </c>
       <c r="F118" s="29" t="s">
         <v>116</v>
       </c>
       <c r="G118" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H118" s="8"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -25291,8 +25546,9 @@
       <c r="G119" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
@@ -25306,7 +25562,7 @@
         <v>50</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>+D120&amp;"%"</f>
+        <f t="shared" ref="E120:E141" si="7">+D120&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F120" s="29" t="s">
@@ -25315,8 +25571,9 @@
       <c r="G120" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -25330,7 +25587,7 @@
         <v>50</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>+D121&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>50%</v>
       </c>
       <c r="F121" s="29" t="s">
@@ -25339,8 +25596,9 @@
       <c r="G121" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -25354,7 +25612,7 @@
         <v>60</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>+D122&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>60%</v>
       </c>
       <c r="F122" s="29" t="s">
@@ -25363,8 +25621,9 @@
       <c r="G122" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -25378,7 +25637,7 @@
         <v>50</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>+D123&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>50%</v>
       </c>
       <c r="F123" s="29" t="s">
@@ -25387,8 +25646,9 @@
       <c r="G123" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -25402,7 +25662,7 @@
         <v>100</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>+D124&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>100%</v>
       </c>
       <c r="F124" s="29" t="s">
@@ -25411,8 +25671,9 @@
       <c r="G124" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -25426,7 +25687,7 @@
         <v>50</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>+D125&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>50%</v>
       </c>
       <c r="F125" s="29" t="s">
@@ -25435,8 +25696,9 @@
       <c r="G125" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -25450,7 +25712,7 @@
         <v>60</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>+D126&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>60%</v>
       </c>
       <c r="F126" s="29" t="s">
@@ -25459,8 +25721,9 @@
       <c r="G126" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -25474,7 +25737,7 @@
         <v>40</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>+D127&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>40%</v>
       </c>
       <c r="F127" s="29" t="s">
@@ -25483,8 +25746,9 @@
       <c r="G127" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
@@ -25498,7 +25762,7 @@
         <v>50</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>+D128&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>50%</v>
       </c>
       <c r="F128" s="29" t="s">
@@ -25507,8 +25771,9 @@
       <c r="G128" s="25">
         <v>848225</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -25522,7 +25787,7 @@
         <v>100</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>+D129&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>100%</v>
       </c>
       <c r="F129" s="29" t="s">
@@ -25531,8 +25796,9 @@
       <c r="G129" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="24" t="s">
         <v>70</v>
       </c>
@@ -25546,7 +25812,7 @@
         <v>45</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>+D130&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F130" s="28" t="s">
@@ -25555,8 +25821,9 @@
       <c r="G130" s="1">
         <v>2059200</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="24" t="s">
         <v>70</v>
       </c>
@@ -25570,7 +25837,7 @@
         <v>45</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>+D131&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F131" s="28" t="s">
@@ -25579,8 +25846,9 @@
       <c r="G131" s="1">
         <v>3162300</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H131" s="8"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="24" t="s">
         <v>70</v>
       </c>
@@ -25594,7 +25862,7 @@
         <v>45</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>+D132&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F132" s="28" t="s">
@@ -25603,8 +25871,9 @@
       <c r="G132" s="1">
         <v>84915</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="24" t="s">
         <v>70</v>
       </c>
@@ -25618,7 +25887,7 @@
         <v>45</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>+D133&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F133" s="28" t="s">
@@ -25627,8 +25896,9 @@
       <c r="G133" s="1">
         <v>198000</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="24" t="s">
         <v>70</v>
       </c>
@@ -25642,7 +25912,7 @@
         <v>45</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>+D134&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F134" s="28" t="s">
@@ -25651,8 +25921,9 @@
       <c r="G134" s="1">
         <v>76200</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H134" s="8"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="24" t="s">
         <v>70</v>
       </c>
@@ -25666,7 +25937,7 @@
         <v>45</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>+D135&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F135" s="28" t="s">
@@ -25675,8 +25946,9 @@
       <c r="G135" s="1">
         <v>926640</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H135" s="8"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="24" t="s">
         <v>70</v>
       </c>
@@ -25690,7 +25962,7 @@
         <v>45</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>+D136&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F136" s="28" t="s">
@@ -25699,8 +25971,9 @@
       <c r="G136" s="1">
         <v>1423035</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="24" t="s">
         <v>70</v>
       </c>
@@ -25714,17 +25987,18 @@
         <v>45</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>+D137&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F137" s="28" t="s">
         <v>116</v>
       </c>
       <c r="G137" s="1">
-        <v>38211.75</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+        <v>38211</v>
+      </c>
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="24" t="s">
         <v>70</v>
       </c>
@@ -25738,7 +26012,7 @@
         <v>45</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>+D138&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F138" s="28" t="s">
@@ -25747,8 +26021,9 @@
       <c r="G138" s="1">
         <v>89100</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="24" t="s">
         <v>70</v>
       </c>
@@ -25762,7 +26037,7 @@
         <v>45</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>+D139&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F139" s="28" t="s">
@@ -25771,8 +26046,9 @@
       <c r="G139" s="1">
         <v>34290</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>13</v>
       </c>
@@ -25786,7 +26062,7 @@
         <v>40</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>+D140&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>40%</v>
       </c>
       <c r="F140" s="29" t="s">
@@ -25795,8 +26071,9 @@
       <c r="G140" s="1">
         <v>118580</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>13</v>
       </c>
@@ -25810,7 +26087,7 @@
         <v>45</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f>+D141&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>45%</v>
       </c>
       <c r="F141" s="29" t="s">
@@ -25819,8 +26096,9 @@
       <c r="G141" s="1">
         <v>1992150</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>13</v>
       </c>
@@ -25842,8 +26120,9 @@
       <c r="G142" s="1">
         <v>1115950</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
@@ -25857,7 +26136,7 @@
         <v>50</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f>+D143&amp;"%"</f>
+        <f t="shared" ref="E143:E154" si="8">+D143&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F143" s="29" t="s">
@@ -25866,8 +26145,9 @@
       <c r="G143" s="1">
         <v>150390</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>13</v>
       </c>
@@ -25881,7 +26161,7 @@
         <v>50</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f>+D144&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>50%</v>
       </c>
       <c r="F144" s="29" t="s">
@@ -25890,8 +26170,9 @@
       <c r="G144" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
@@ -25905,7 +26186,7 @@
         <v>60</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f>+D145&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>60%</v>
       </c>
       <c r="F145" s="29" t="s">
@@ -25914,8 +26195,9 @@
       <c r="G145" s="1">
         <v>82500</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
@@ -25929,7 +26211,7 @@
         <v>50</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f>+D146&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>50%</v>
       </c>
       <c r="F146" s="29" t="s">
@@ -25938,8 +26220,9 @@
       <c r="G146" s="1">
         <v>49000</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>13</v>
       </c>
@@ -25953,7 +26236,7 @@
         <v>100</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f>+D147&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>100%</v>
       </c>
       <c r="F147" s="29" t="s">
@@ -25962,8 +26245,9 @@
       <c r="G147" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H147" s="8"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -25977,7 +26261,7 @@
         <v>50</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f>+D148&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>50%</v>
       </c>
       <c r="F148" s="29" t="s">
@@ -25986,8 +26270,9 @@
       <c r="G148" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H148" s="8"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -26001,7 +26286,7 @@
         <v>60</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f>+D149&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>60%</v>
       </c>
       <c r="F149" s="29" t="s">
@@ -26010,8 +26295,9 @@
       <c r="G149" s="1">
         <v>22800</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H149" s="8"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -26025,7 +26311,7 @@
         <v>40</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f>+D150&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>40%</v>
       </c>
       <c r="F150" s="29" t="s">
@@ -26034,8 +26320,9 @@
       <c r="G150" s="1">
         <v>29100</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H150" s="8"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -26049,7 +26336,7 @@
         <v>50</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f>+D151&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>50%</v>
       </c>
       <c r="F151" s="29" t="s">
@@ -26058,8 +26345,9 @@
       <c r="G151" s="1">
         <v>1696450</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H151" s="8"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>6</v>
       </c>
@@ -26073,7 +26361,7 @@
         <v>100</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f>+D152&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>100%</v>
       </c>
       <c r="F152" s="29" t="s">
@@ -26082,8 +26370,9 @@
       <c r="G152" s="1">
         <v>207350</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H152" s="8"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -26097,7 +26386,7 @@
         <v>40</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f>+D153&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>40%</v>
       </c>
       <c r="F153" s="29" t="s">
@@ -26106,8 +26395,9 @@
       <c r="G153" s="1">
         <v>47432</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -26121,17 +26411,18 @@
         <v>45</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f>+D154&amp;"%"</f>
+        <f t="shared" si="8"/>
         <v>45%</v>
       </c>
       <c r="F154" s="29" t="s">
         <v>117</v>
       </c>
       <c r="G154" s="1">
-        <v>896467.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+        <v>896467</v>
+      </c>
+      <c r="H154" s="8"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -26153,8 +26444,9 @@
       <c r="G155" s="1">
         <v>557975</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
@@ -26168,7 +26460,7 @@
         <v>50</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f>+D156&amp;"%"</f>
+        <f t="shared" ref="E156:E187" si="9">+D156&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="F156" s="29" t="s">
@@ -26177,8 +26469,9 @@
       <c r="G156" s="1">
         <v>75195</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H156" s="8"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
@@ -26192,7 +26485,7 @@
         <v>50</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f>+D157&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>50%</v>
       </c>
       <c r="F157" s="29" t="s">
@@ -26201,8 +26494,9 @@
       <c r="G157" s="1">
         <v>13500</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H157" s="8"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -26216,7 +26510,7 @@
         <v>60</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f>+D158&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>60%</v>
       </c>
       <c r="F158" s="29" t="s">
@@ -26225,8 +26519,9 @@
       <c r="G158" s="1">
         <v>49500</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H158" s="8"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>13</v>
       </c>
@@ -26240,7 +26535,7 @@
         <v>50</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f>+D159&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>50%</v>
       </c>
       <c r="F159" s="29" t="s">
@@ -26249,8 +26544,9 @@
       <c r="G159" s="1">
         <v>24500</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H159" s="8"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -26264,7 +26560,7 @@
         <v>100</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f>+D160&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>100%</v>
       </c>
       <c r="F160" s="29" t="s">
@@ -26273,8 +26569,9 @@
       <c r="G160" s="1">
         <v>153100</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H160" s="8"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>13</v>
       </c>
@@ -26288,7 +26585,7 @@
         <v>50</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f>+D161&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>50%</v>
       </c>
       <c r="F161" s="29" t="s">
@@ -26297,8 +26594,9 @@
       <c r="G161" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H161" s="8"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
@@ -26312,7 +26610,7 @@
         <v>60</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f>+D162&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>60%</v>
       </c>
       <c r="F162" s="29" t="s">
@@ -26321,8 +26619,9 @@
       <c r="G162" s="1">
         <v>13680</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H162" s="8"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
@@ -26336,7 +26635,7 @@
         <v>40</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f>+D163&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>40%</v>
       </c>
       <c r="F163" s="29" t="s">
@@ -26345,8 +26644,9 @@
       <c r="G163" s="25">
         <v>11640</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H163" s="8"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -26360,7 +26660,7 @@
         <v>50</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f>+D164&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>50%</v>
       </c>
       <c r="F164" s="29" t="s">
@@ -26369,8 +26669,9 @@
       <c r="G164" s="25">
         <v>848225</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H164" s="8"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>6</v>
       </c>
@@ -26384,7 +26685,7 @@
         <v>100</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f>+D165&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>100%</v>
       </c>
       <c r="F165" s="29" t="s">
@@ -26393,8 +26694,9 @@
       <c r="G165" s="25">
         <v>207350</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H165" s="8"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="24" t="s">
         <v>70</v>
       </c>
@@ -26408,7 +26710,7 @@
         <v>45</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f>+D166&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F166" s="28" t="s">
@@ -26417,8 +26719,9 @@
       <c r="G166" s="1">
         <v>514800</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H166" s="8"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="24" t="s">
         <v>70</v>
       </c>
@@ -26432,7 +26735,7 @@
         <v>45</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f>+D167&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F167" s="28" t="s">
@@ -26441,8 +26744,9 @@
       <c r="G167" s="1">
         <v>9315450</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H167" s="8"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="24" t="s">
         <v>70</v>
       </c>
@@ -26456,7 +26760,7 @@
         <v>45</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f>+D168&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F168" s="28" t="s">
@@ -26465,8 +26769,9 @@
       <c r="G168" s="1">
         <v>84915</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H168" s="8"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="24" t="s">
         <v>70</v>
       </c>
@@ -26480,7 +26785,7 @@
         <v>45</v>
       </c>
       <c r="E169" s="1" t="str">
-        <f>+D169&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F169" s="28" t="s">
@@ -26489,8 +26794,9 @@
       <c r="G169" s="1">
         <v>19800</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H169" s="8"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="24" t="s">
         <v>70</v>
       </c>
@@ -26504,7 +26810,7 @@
         <v>45</v>
       </c>
       <c r="E170" s="1" t="str">
-        <f>+D170&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F170" s="28" t="s">
@@ -26513,8 +26819,9 @@
       <c r="G170" s="1">
         <v>495300</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H170" s="8"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="24" t="s">
         <v>70</v>
       </c>
@@ -26528,7 +26835,7 @@
         <v>45</v>
       </c>
       <c r="E171" s="1" t="str">
-        <f>+D171&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F171" s="28" t="s">
@@ -26537,8 +26844,9 @@
       <c r="G171" s="1">
         <v>231660</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H171" s="8"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="24" t="s">
         <v>70</v>
       </c>
@@ -26552,17 +26860,18 @@
         <v>45</v>
       </c>
       <c r="E172" s="1" t="str">
-        <f>+D172&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F172" s="28" t="s">
         <v>117</v>
       </c>
       <c r="G172" s="1">
-        <v>4191952.5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4191952</v>
+      </c>
+      <c r="H172" s="8"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="24" t="s">
         <v>70</v>
       </c>
@@ -26576,17 +26885,18 @@
         <v>45</v>
       </c>
       <c r="E173" s="1" t="str">
-        <f>+D173&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F173" s="28" t="s">
         <v>117</v>
       </c>
       <c r="G173" s="1">
-        <v>38211.75</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+        <v>38211</v>
+      </c>
+      <c r="H173" s="8"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="24" t="s">
         <v>70</v>
       </c>
@@ -26600,7 +26910,7 @@
         <v>45</v>
       </c>
       <c r="E174" s="1" t="str">
-        <f>+D174&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F174" s="28" t="s">
@@ -26609,8 +26919,9 @@
       <c r="G174" s="1">
         <v>8910</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H174" s="8"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="24" t="s">
         <v>70</v>
       </c>
@@ -26624,7 +26935,7 @@
         <v>45</v>
       </c>
       <c r="E175" s="1" t="str">
-        <f>+D175&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F175" s="28" t="s">
@@ -26633,8 +26944,9 @@
       <c r="G175" s="1">
         <v>222885</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H175" s="8"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="24" t="s">
         <v>70</v>
       </c>
@@ -26648,7 +26960,7 @@
         <v>45</v>
       </c>
       <c r="E176" s="1" t="str">
-        <f>+D176&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F176" s="28" t="s">
@@ -26657,8 +26969,9 @@
       <c r="G176" s="1">
         <v>39600</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H176" s="8"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="24" t="s">
         <v>70</v>
       </c>
@@ -26672,7 +26985,7 @@
         <v>45</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f>+D177&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F177" s="28" t="s">
@@ -26681,8 +26994,9 @@
       <c r="G177" s="1">
         <v>9429750</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H177" s="8"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="24" t="s">
         <v>70</v>
       </c>
@@ -26696,7 +27010,7 @@
         <v>45</v>
       </c>
       <c r="E178" s="1" t="str">
-        <f>+D178&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F178" s="28" t="s">
@@ -26705,8 +27019,9 @@
       <c r="G178" s="1">
         <v>94350</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H178" s="8"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="24" t="s">
         <v>70</v>
       </c>
@@ -26720,7 +27035,7 @@
         <v>45</v>
       </c>
       <c r="E179" s="1" t="str">
-        <f>+D179&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F179" s="28" t="s">
@@ -26729,8 +27044,9 @@
       <c r="G179" s="1">
         <v>495300</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H179" s="8"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="24" t="s">
         <v>70</v>
       </c>
@@ -26744,7 +27060,7 @@
         <v>45</v>
       </c>
       <c r="E180" s="1" t="str">
-        <f>+D180&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F180" s="28" t="s">
@@ -26753,8 +27069,9 @@
       <c r="G180" s="1">
         <v>17820</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H180" s="8"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="24" t="s">
         <v>70</v>
       </c>
@@ -26768,17 +27085,18 @@
         <v>45</v>
       </c>
       <c r="E181" s="1" t="str">
-        <f>+D181&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F181" s="28" t="s">
         <v>122</v>
       </c>
       <c r="G181" s="1">
-        <v>4243387.5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4243387</v>
+      </c>
+      <c r="H181" s="8"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="24" t="s">
         <v>70</v>
       </c>
@@ -26792,17 +27110,18 @@
         <v>45</v>
       </c>
       <c r="E182" s="1" t="str">
-        <f>+D182&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F182" s="28" t="s">
         <v>122</v>
       </c>
       <c r="G182" s="1">
-        <v>42457.5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42457</v>
+      </c>
+      <c r="H182" s="8"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="24" t="s">
         <v>70</v>
       </c>
@@ -26816,7 +27135,7 @@
         <v>45</v>
       </c>
       <c r="E183" s="1" t="str">
-        <f>+D183&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F183" s="28" t="s">
@@ -26825,8 +27144,9 @@
       <c r="G183" s="1">
         <v>222885</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H183" s="8"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="24" t="s">
         <v>70</v>
       </c>
@@ -26840,7 +27160,7 @@
         <v>45</v>
       </c>
       <c r="E184" s="1" t="str">
-        <f>+D184&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F184" s="28" t="s">
@@ -26849,8 +27169,9 @@
       <c r="G184" s="1">
         <v>9486900</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H184" s="8"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="24" t="s">
         <v>70</v>
       </c>
@@ -26864,7 +27185,7 @@
         <v>45</v>
       </c>
       <c r="E185" s="1" t="str">
-        <f>+D185&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F185" s="28" t="s">
@@ -26873,8 +27194,9 @@
       <c r="G185" s="1">
         <v>245310</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H185" s="8"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="24" t="s">
         <v>70</v>
       </c>
@@ -26888,7 +27210,7 @@
         <v>45</v>
       </c>
       <c r="E186" s="1" t="str">
-        <f>+D186&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F186" s="28" t="s">
@@ -26897,8 +27219,9 @@
       <c r="G186" s="1">
         <v>495300</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H186" s="8"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="24" t="s">
         <v>70</v>
       </c>
@@ -26912,7 +27235,7 @@
         <v>45</v>
       </c>
       <c r="E187" s="1" t="str">
-        <f>+D187&amp;"%"</f>
+        <f t="shared" si="9"/>
         <v>45%</v>
       </c>
       <c r="F187" s="28" t="s">
@@ -26921,8 +27244,9 @@
       <c r="G187" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H187" s="8"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="24" t="s">
         <v>70</v>
       </c>
@@ -26936,7 +27260,7 @@
         <v>45</v>
       </c>
       <c r="E188" s="1" t="str">
-        <f>+D188&amp;"%"</f>
+        <f t="shared" ref="E188:E219" si="10">+D188&amp;"%"</f>
         <v>45%</v>
       </c>
       <c r="F188" s="28" t="s">
@@ -26945,8 +27269,9 @@
       <c r="G188" s="1">
         <v>4269105</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H188" s="8"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="24" t="s">
         <v>70</v>
       </c>
@@ -26960,17 +27285,18 @@
         <v>45</v>
       </c>
       <c r="E189" s="1" t="str">
-        <f>+D189&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F189" s="28" t="s">
         <v>121</v>
       </c>
       <c r="G189" s="1">
-        <v>110389.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+        <v>110389</v>
+      </c>
+      <c r="H189" s="8"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="24" t="s">
         <v>70</v>
       </c>
@@ -26984,7 +27310,7 @@
         <v>45</v>
       </c>
       <c r="E190" s="1" t="str">
-        <f>+D190&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F190" s="28" t="s">
@@ -26993,8 +27319,9 @@
       <c r="G190" s="1">
         <v>222885</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H190" s="8"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="24" t="s">
         <v>70</v>
       </c>
@@ -27008,17 +27335,18 @@
         <v>45</v>
       </c>
       <c r="E191" s="1" t="str">
-        <f>+D191&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F191" s="28" t="s">
         <v>121</v>
       </c>
       <c r="G191" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H191" s="8"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="24" t="s">
         <v>70</v>
       </c>
@@ -27032,7 +27360,7 @@
         <v>45</v>
       </c>
       <c r="E192" s="1" t="str">
-        <f>+D192&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F192" s="28" t="s">
@@ -27041,8 +27369,9 @@
       <c r="G192" s="1">
         <v>9010650</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H192" s="8"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="24" t="s">
         <v>70</v>
       </c>
@@ -27056,7 +27385,7 @@
         <v>45</v>
       </c>
       <c r="E193" s="1" t="str">
-        <f>+D193&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F193" s="28" t="s">
@@ -27065,8 +27394,9 @@
       <c r="G193" s="1">
         <v>245310</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H193" s="8"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="24" t="s">
         <v>70</v>
       </c>
@@ -27080,7 +27410,7 @@
         <v>45</v>
       </c>
       <c r="E194" s="1" t="str">
-        <f>+D194&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F194" s="28" t="s">
@@ -27089,8 +27419,9 @@
       <c r="G194" s="1">
         <v>495300</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H194" s="8"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="24" t="s">
         <v>70</v>
       </c>
@@ -27104,7 +27435,7 @@
         <v>45</v>
       </c>
       <c r="E195" s="1" t="str">
-        <f>+D195&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F195" s="28" t="s">
@@ -27113,8 +27444,9 @@
       <c r="G195" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H195" s="8"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="24" t="s">
         <v>70</v>
       </c>
@@ -27128,17 +27460,18 @@
         <v>45</v>
       </c>
       <c r="E196" s="1" t="str">
-        <f>+D196&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F196" s="28" t="s">
         <v>104</v>
       </c>
       <c r="G196" s="1">
-        <v>4054792.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4054792</v>
+      </c>
+      <c r="H196" s="8"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="24" t="s">
         <v>70</v>
       </c>
@@ -27152,17 +27485,18 @@
         <v>45</v>
       </c>
       <c r="E197" s="1" t="str">
-        <f>+D197&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F197" s="28" t="s">
         <v>104</v>
       </c>
       <c r="G197" s="1">
-        <v>110389.5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+        <v>110389</v>
+      </c>
+      <c r="H197" s="8"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="24" t="s">
         <v>70</v>
       </c>
@@ -27176,7 +27510,7 @@
         <v>45</v>
       </c>
       <c r="E198" s="1" t="str">
-        <f>+D198&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F198" s="28" t="s">
@@ -27185,8 +27519,9 @@
       <c r="G198" s="1">
         <v>222885</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H198" s="8"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="24" t="s">
         <v>70</v>
       </c>
@@ -27200,17 +27535,18 @@
         <v>45</v>
       </c>
       <c r="E199" s="1" t="str">
-        <f>+D199&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F199" s="28" t="s">
         <v>104</v>
       </c>
       <c r="G199" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H199" s="8"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="24" t="s">
         <v>70</v>
       </c>
@@ -27224,7 +27560,7 @@
         <v>45</v>
       </c>
       <c r="E200" s="1" t="str">
-        <f>+D200&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F200" s="28" t="s">
@@ -27233,8 +27569,9 @@
       <c r="G200" s="1">
         <v>6553200</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H200" s="8"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="24" t="s">
         <v>70</v>
       </c>
@@ -27248,7 +27585,7 @@
         <v>45</v>
       </c>
       <c r="E201" s="1" t="str">
-        <f>+D201&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F201" s="28" t="s">
@@ -27257,8 +27594,9 @@
       <c r="G201" s="1">
         <v>245310</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H201" s="8"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="24" t="s">
         <v>70</v>
       </c>
@@ -27272,7 +27610,7 @@
         <v>45</v>
       </c>
       <c r="E202" s="1" t="str">
-        <f>+D202&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F202" s="28" t="s">
@@ -27281,8 +27619,9 @@
       <c r="G202" s="1">
         <v>419100</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H202" s="8"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203" s="24" t="s">
         <v>70</v>
       </c>
@@ -27296,7 +27635,7 @@
         <v>45</v>
       </c>
       <c r="E203" s="1" t="str">
-        <f>+D203&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F203" s="28" t="s">
@@ -27305,8 +27644,9 @@
       <c r="G203" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H203" s="8"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="24" t="s">
         <v>70</v>
       </c>
@@ -27320,7 +27660,7 @@
         <v>45</v>
       </c>
       <c r="E204" s="1" t="str">
-        <f>+D204&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F204" s="28" t="s">
@@ -27329,8 +27669,9 @@
       <c r="G204" s="1">
         <v>2948940</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H204" s="8"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="24" t="s">
         <v>70</v>
       </c>
@@ -27344,17 +27685,18 @@
         <v>45</v>
       </c>
       <c r="E205" s="1" t="str">
-        <f>+D205&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F205" s="28" t="s">
         <v>105</v>
       </c>
       <c r="G205" s="1">
-        <v>110389.5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+        <v>110389</v>
+      </c>
+      <c r="H205" s="8"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206" s="24" t="s">
         <v>70</v>
       </c>
@@ -27368,7 +27710,7 @@
         <v>45</v>
       </c>
       <c r="E206" s="1" t="str">
-        <f>+D206&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F206" s="28" t="s">
@@ -27377,8 +27719,9 @@
       <c r="G206" s="1">
         <v>188595</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H206" s="8"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="24" t="s">
         <v>70</v>
       </c>
@@ -27392,17 +27735,18 @@
         <v>45</v>
       </c>
       <c r="E207" s="1" t="str">
-        <f>+D207&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F207" s="28" t="s">
         <v>105</v>
       </c>
       <c r="G207" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H207" s="8"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="24" t="s">
         <v>70</v>
       </c>
@@ -27416,7 +27760,7 @@
         <v>45</v>
       </c>
       <c r="E208" s="1" t="str">
-        <f>+D208&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F208" s="28" t="s">
@@ -27425,8 +27769,9 @@
       <c r="G208" s="1">
         <v>6381750</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H208" s="8"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="24" t="s">
         <v>70</v>
       </c>
@@ -27440,7 +27785,7 @@
         <v>45</v>
       </c>
       <c r="E209" s="1" t="str">
-        <f>+D209&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F209" s="28" t="s">
@@ -27449,8 +27794,9 @@
       <c r="G209" s="1">
         <v>254745</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H209" s="8"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="24" t="s">
         <v>70</v>
       </c>
@@ -27464,7 +27810,7 @@
         <v>45</v>
       </c>
       <c r="E210" s="1" t="str">
-        <f>+D210&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F210" s="28" t="s">
@@ -27473,8 +27819,9 @@
       <c r="G210" s="1">
         <v>419100</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H210" s="8"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="24" t="s">
         <v>70</v>
       </c>
@@ -27488,7 +27835,7 @@
         <v>45</v>
       </c>
       <c r="E211" s="1" t="str">
-        <f>+D211&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F211" s="28" t="s">
@@ -27497,8 +27844,9 @@
       <c r="G211" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H211" s="8"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="24" t="s">
         <v>70</v>
       </c>
@@ -27512,17 +27860,18 @@
         <v>45</v>
       </c>
       <c r="E212" s="1" t="str">
-        <f>+D212&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F212" s="28" t="s">
         <v>106</v>
       </c>
       <c r="G212" s="1">
-        <v>2871787.5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2871787</v>
+      </c>
+      <c r="H212" s="8"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213" s="24" t="s">
         <v>70</v>
       </c>
@@ -27536,17 +27885,18 @@
         <v>45</v>
       </c>
       <c r="E213" s="1" t="str">
-        <f>+D213&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F213" s="28" t="s">
         <v>106</v>
       </c>
       <c r="G213" s="1">
-        <v>114635.25</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+        <v>114635</v>
+      </c>
+      <c r="H213" s="8"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="24" t="s">
         <v>70</v>
       </c>
@@ -27560,7 +27910,7 @@
         <v>45</v>
       </c>
       <c r="E214" s="1" t="str">
-        <f>+D214&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F214" s="28" t="s">
@@ -27569,8 +27919,9 @@
       <c r="G214" s="1">
         <v>188595</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H214" s="8"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="24" t="s">
         <v>70</v>
       </c>
@@ -27584,17 +27935,18 @@
         <v>45</v>
       </c>
       <c r="E215" s="1" t="str">
-        <f>+D215&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F215" s="28" t="s">
         <v>106</v>
       </c>
       <c r="G215" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H215" s="8"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="24" t="s">
         <v>70</v>
       </c>
@@ -27608,7 +27960,7 @@
         <v>45</v>
       </c>
       <c r="E216" s="1" t="str">
-        <f>+D216&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F216" s="28" t="s">
@@ -27617,8 +27969,9 @@
       <c r="G216" s="1">
         <v>228600</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H216" s="8"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="24" t="s">
         <v>70</v>
       </c>
@@ -27632,7 +27985,7 @@
         <v>45</v>
       </c>
       <c r="E217" s="1" t="str">
-        <f>+D217&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F217" s="28" t="s">
@@ -27641,8 +27994,9 @@
       <c r="G217" s="1">
         <v>254745</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H217" s="8"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="24" t="s">
         <v>70</v>
       </c>
@@ -27656,7 +28010,7 @@
         <v>45</v>
       </c>
       <c r="E218" s="1" t="str">
-        <f>+D218&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F218" s="28" t="s">
@@ -27665,8 +28019,9 @@
       <c r="G218" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H218" s="8"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="24" t="s">
         <v>70</v>
       </c>
@@ -27680,7 +28035,7 @@
         <v>45</v>
       </c>
       <c r="E219" s="1" t="str">
-        <f>+D219&amp;"%"</f>
+        <f t="shared" si="10"/>
         <v>45%</v>
       </c>
       <c r="F219" s="28" t="s">
@@ -27689,8 +28044,9 @@
       <c r="G219" s="1">
         <v>102870</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H219" s="8"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="24" t="s">
         <v>70</v>
       </c>
@@ -27704,17 +28060,18 @@
         <v>45</v>
       </c>
       <c r="E220" s="1" t="str">
-        <f>+D220&amp;"%"</f>
+        <f t="shared" ref="E220:E251" si="11">+D220&amp;"%"</f>
         <v>45%</v>
       </c>
       <c r="F220" s="28" t="s">
         <v>142</v>
       </c>
       <c r="G220" s="1">
-        <v>114635.25</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+        <v>114635</v>
+      </c>
+      <c r="H220" s="8"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221" s="24" t="s">
         <v>70</v>
       </c>
@@ -27728,17 +28085,18 @@
         <v>45</v>
       </c>
       <c r="E221" s="1" t="str">
-        <f>+D221&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F221" s="28" t="s">
         <v>142</v>
       </c>
       <c r="G221" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H221" s="8"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="24" t="s">
         <v>70</v>
       </c>
@@ -27752,7 +28110,7 @@
         <v>45</v>
       </c>
       <c r="E222" s="1" t="str">
-        <f>+D222&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F222" s="28" t="s">
@@ -27761,8 +28119,9 @@
       <c r="G222" s="1">
         <v>114300</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H222" s="8"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="24" t="s">
         <v>70</v>
       </c>
@@ -27776,7 +28135,7 @@
         <v>45</v>
       </c>
       <c r="E223" s="1" t="str">
-        <f>+D223&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F223" s="28" t="s">
@@ -27785,8 +28144,9 @@
       <c r="G223" s="1">
         <v>254745</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H223" s="8"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="24" t="s">
         <v>70</v>
       </c>
@@ -27800,7 +28160,7 @@
         <v>45</v>
       </c>
       <c r="E224" s="1" t="str">
-        <f>+D224&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F224" s="28" t="s">
@@ -27809,8 +28169,9 @@
       <c r="G224" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H224" s="8"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225" s="24" t="s">
         <v>70</v>
       </c>
@@ -27824,7 +28185,7 @@
         <v>45</v>
       </c>
       <c r="E225" s="1" t="str">
-        <f>+D225&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F225" s="28" t="s">
@@ -27833,8 +28194,9 @@
       <c r="G225" s="1">
         <v>51435</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H225" s="8"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="24" t="s">
         <v>70</v>
       </c>
@@ -27848,17 +28210,18 @@
         <v>45</v>
       </c>
       <c r="E226" s="1" t="str">
-        <f>+D226&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F226" s="28" t="s">
         <v>126</v>
       </c>
       <c r="G226" s="1">
-        <v>114635.25</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+        <v>114635</v>
+      </c>
+      <c r="H226" s="8"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="24" t="s">
         <v>70</v>
       </c>
@@ -27872,17 +28235,18 @@
         <v>45</v>
       </c>
       <c r="E227" s="1" t="str">
-        <f>+D227&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F227" s="28" t="s">
         <v>126</v>
       </c>
       <c r="G227" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H227" s="8"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="24" t="s">
         <v>70</v>
       </c>
@@ -27896,7 +28260,7 @@
         <v>45</v>
       </c>
       <c r="E228" s="1" t="str">
-        <f>+D228&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F228" s="28" t="s">
@@ -27905,8 +28269,9 @@
       <c r="G228" s="1">
         <v>103785</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H228" s="8"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229" s="24" t="s">
         <v>70</v>
       </c>
@@ -27920,17 +28285,18 @@
         <v>45</v>
       </c>
       <c r="E229" s="1" t="str">
-        <f>+D229&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F229" s="28" t="s">
         <v>120</v>
       </c>
       <c r="G229" s="1">
-        <v>46703.25</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+        <v>46703</v>
+      </c>
+      <c r="H229" s="8"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="24" t="s">
         <v>70</v>
       </c>
@@ -27944,7 +28310,7 @@
         <v>45</v>
       </c>
       <c r="E230" s="1" t="str">
-        <f>+D230&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F230" s="28" t="s">
@@ -27953,8 +28319,9 @@
       <c r="G230" s="1">
         <v>103785</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H230" s="8"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="24" t="s">
         <v>70</v>
       </c>
@@ -27968,17 +28335,18 @@
         <v>45</v>
       </c>
       <c r="E231" s="1" t="str">
-        <f>+D231&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F231" s="28" t="s">
         <v>119</v>
       </c>
       <c r="G231" s="1">
-        <v>46703.25</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+        <v>46703</v>
+      </c>
+      <c r="H231" s="8"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="24" t="s">
         <v>70</v>
       </c>
@@ -27992,7 +28360,7 @@
         <v>45</v>
       </c>
       <c r="E232" s="1" t="str">
-        <f>+D232&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F232" s="28" t="s">
@@ -28001,8 +28369,9 @@
       <c r="G232" s="1">
         <v>94350</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H232" s="8"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="24" t="s">
         <v>70</v>
       </c>
@@ -28016,17 +28385,18 @@
         <v>45</v>
       </c>
       <c r="E233" s="1" t="str">
-        <f>+D233&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F233" s="28" t="s">
         <v>118</v>
       </c>
       <c r="G233" s="1">
-        <v>42457.5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42457</v>
+      </c>
+      <c r="H233" s="8"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="24" t="s">
         <v>70</v>
       </c>
@@ -28040,7 +28410,7 @@
         <v>45</v>
       </c>
       <c r="E234" s="1" t="str">
-        <f>+D234&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F234" s="28" t="s">
@@ -28049,8 +28419,9 @@
       <c r="G234" s="1">
         <v>94350</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H234" s="8"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="24" t="s">
         <v>70</v>
       </c>
@@ -28064,17 +28435,18 @@
         <v>45</v>
       </c>
       <c r="E235" s="1" t="str">
-        <f>+D235&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F235" s="28" t="s">
         <v>141</v>
       </c>
       <c r="G235" s="1">
-        <v>42457.5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42457</v>
+      </c>
+      <c r="H235" s="8"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="24" t="s">
         <v>70</v>
       </c>
@@ -28088,7 +28460,7 @@
         <v>45</v>
       </c>
       <c r="E236" s="1" t="str">
-        <f>+D236&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F236" s="28" t="s">
@@ -28097,8 +28469,9 @@
       <c r="G236" s="1">
         <v>94350</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H236" s="8"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="24" t="s">
         <v>70</v>
       </c>
@@ -28112,17 +28485,18 @@
         <v>45</v>
       </c>
       <c r="E237" s="1" t="str">
-        <f>+D237&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F237" s="28" t="s">
         <v>125</v>
       </c>
       <c r="G237" s="1">
-        <v>42457.5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42457</v>
+      </c>
+      <c r="H237" s="8"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="24" t="s">
         <v>70</v>
       </c>
@@ -28136,7 +28510,7 @@
         <v>45</v>
       </c>
       <c r="E238" s="1" t="str">
-        <f>+D238&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F238" s="28" t="s">
@@ -28145,8 +28519,9 @@
       <c r="G238" s="1">
         <v>19050</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H238" s="8"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239" s="24" t="s">
         <v>70</v>
       </c>
@@ -28160,7 +28535,7 @@
         <v>45</v>
       </c>
       <c r="E239" s="1" t="str">
-        <f>+D239&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F239" s="28" t="s">
@@ -28169,8 +28544,9 @@
       <c r="G239" s="1">
         <v>349095</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H239" s="8"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="24" t="s">
         <v>70</v>
       </c>
@@ -28184,7 +28560,7 @@
         <v>45</v>
       </c>
       <c r="E240" s="1" t="str">
-        <f>+D240&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F240" s="28" t="s">
@@ -28193,8 +28569,9 @@
       <c r="G240" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H240" s="8"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="24" t="s">
         <v>70</v>
       </c>
@@ -28208,17 +28585,18 @@
         <v>45</v>
       </c>
       <c r="E241" s="1" t="str">
-        <f>+D241&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F241" s="28" t="s">
         <v>128</v>
       </c>
       <c r="G241" s="1">
-        <v>8572.5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+        <v>8572</v>
+      </c>
+      <c r="H241" s="8"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="24" t="s">
         <v>70</v>
       </c>
@@ -28232,17 +28610,18 @@
         <v>45</v>
       </c>
       <c r="E242" s="1" t="str">
-        <f>+D242&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F242" s="28" t="s">
         <v>128</v>
       </c>
       <c r="G242" s="1">
-        <v>157092.75</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+        <v>157092</v>
+      </c>
+      <c r="H242" s="8"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="24" t="s">
         <v>70</v>
       </c>
@@ -28256,17 +28635,18 @@
         <v>45</v>
       </c>
       <c r="E243" s="1" t="str">
-        <f>+D243&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F243" s="28" t="s">
         <v>128</v>
       </c>
       <c r="G243" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H243" s="8"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="24" t="s">
         <v>70</v>
       </c>
@@ -28280,7 +28660,7 @@
         <v>45</v>
       </c>
       <c r="E244" s="1" t="str">
-        <f>+D244&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F244" s="28" t="s">
@@ -28289,8 +28669,9 @@
       <c r="G244" s="1">
         <v>349095</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H244" s="8"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="24" t="s">
         <v>70</v>
       </c>
@@ -28304,7 +28685,7 @@
         <v>45</v>
       </c>
       <c r="E245" s="1" t="str">
-        <f>+D245&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F245" s="28" t="s">
@@ -28313,8 +28694,9 @@
       <c r="G245" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H245" s="8"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="24" t="s">
         <v>70</v>
       </c>
@@ -28328,17 +28710,18 @@
         <v>45</v>
       </c>
       <c r="E246" s="1" t="str">
-        <f>+D246&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F246" s="28" t="s">
         <v>130</v>
       </c>
       <c r="G246" s="1">
-        <v>157092.75</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+        <v>157092</v>
+      </c>
+      <c r="H246" s="8"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247" s="24" t="s">
         <v>70</v>
       </c>
@@ -28352,17 +28735,18 @@
         <v>45</v>
       </c>
       <c r="E247" s="1" t="str">
-        <f>+D247&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F247" s="28" t="s">
         <v>130</v>
       </c>
       <c r="G247" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H247" s="8"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="24" t="s">
         <v>70</v>
       </c>
@@ -28376,7 +28760,7 @@
         <v>45</v>
       </c>
       <c r="E248" s="1" t="str">
-        <f>+D248&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F248" s="28" t="s">
@@ -28385,8 +28769,9 @@
       <c r="G248" s="1">
         <v>292485</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H248" s="8"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="24" t="s">
         <v>70</v>
       </c>
@@ -28400,7 +28785,7 @@
         <v>45</v>
       </c>
       <c r="E249" s="1" t="str">
-        <f>+D249&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F249" s="28" t="s">
@@ -28409,8 +28794,9 @@
       <c r="G249" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H249" s="8"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250" s="24" t="s">
         <v>70</v>
       </c>
@@ -28424,17 +28810,18 @@
         <v>45</v>
       </c>
       <c r="E250" s="1" t="str">
-        <f>+D250&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F250" s="28" t="s">
         <v>132</v>
       </c>
       <c r="G250" s="1">
-        <v>131618.25</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+        <v>131618</v>
+      </c>
+      <c r="H250" s="8"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251" s="24" t="s">
         <v>70</v>
       </c>
@@ -28448,17 +28835,18 @@
         <v>45</v>
       </c>
       <c r="E251" s="1" t="str">
-        <f>+D251&amp;"%"</f>
+        <f t="shared" si="11"/>
         <v>45%</v>
       </c>
       <c r="F251" s="28" t="s">
         <v>132</v>
       </c>
       <c r="G251" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H251" s="8"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252" s="24" t="s">
         <v>70</v>
       </c>
@@ -28472,7 +28860,7 @@
         <v>45</v>
       </c>
       <c r="E252" s="1" t="str">
-        <f>+D252&amp;"%"</f>
+        <f t="shared" ref="E252:E283" si="12">+D252&amp;"%"</f>
         <v>45%</v>
       </c>
       <c r="F252" s="28" t="s">
@@ -28481,8 +28869,9 @@
       <c r="G252" s="1">
         <v>264180</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H252" s="8"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253" s="24" t="s">
         <v>70</v>
       </c>
@@ -28496,7 +28885,7 @@
         <v>45</v>
       </c>
       <c r="E253" s="1" t="str">
-        <f>+D253&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F253" s="28" t="s">
@@ -28505,8 +28894,9 @@
       <c r="G253" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H253" s="8"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="24" t="s">
         <v>70</v>
       </c>
@@ -28520,7 +28910,7 @@
         <v>45</v>
       </c>
       <c r="E254" s="1" t="str">
-        <f>+D254&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F254" s="28" t="s">
@@ -28529,8 +28919,9 @@
       <c r="G254" s="1">
         <v>118881</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H254" s="8"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="24" t="s">
         <v>70</v>
       </c>
@@ -28544,17 +28935,18 @@
         <v>45</v>
       </c>
       <c r="E255" s="1" t="str">
-        <f>+D255&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F255" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G255" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H255" s="8"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="24" t="s">
         <v>70</v>
       </c>
@@ -28568,7 +28960,7 @@
         <v>45</v>
       </c>
       <c r="E256" s="1" t="str">
-        <f>+D256&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F256" s="28" t="s">
@@ -28577,8 +28969,9 @@
       <c r="G256" s="1">
         <v>264180</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H256" s="8"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257" s="24" t="s">
         <v>70</v>
       </c>
@@ -28592,7 +28985,7 @@
         <v>45</v>
       </c>
       <c r="E257" s="1" t="str">
-        <f>+D257&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F257" s="28" t="s">
@@ -28601,8 +28994,9 @@
       <c r="G257" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H257" s="8"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258" s="24" t="s">
         <v>70</v>
       </c>
@@ -28616,7 +29010,7 @@
         <v>45</v>
       </c>
       <c r="E258" s="1" t="str">
-        <f>+D258&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F258" s="28" t="s">
@@ -28625,8 +29019,9 @@
       <c r="G258" s="1">
         <v>118881</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H258" s="8"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259" s="24" t="s">
         <v>70</v>
       </c>
@@ -28640,17 +29035,18 @@
         <v>45</v>
       </c>
       <c r="E259" s="1" t="str">
-        <f>+D259&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F259" s="28" t="s">
         <v>136</v>
       </c>
       <c r="G259" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H259" s="8"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="24" t="s">
         <v>70</v>
       </c>
@@ -28664,7 +29060,7 @@
         <v>45</v>
       </c>
       <c r="E260" s="1" t="str">
-        <f>+D260&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F260" s="28" t="s">
@@ -28673,8 +29069,9 @@
       <c r="G260" s="1">
         <v>254745</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H260" s="8"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="24" t="s">
         <v>70</v>
       </c>
@@ -28688,7 +29085,7 @@
         <v>45</v>
       </c>
       <c r="E261" s="1" t="str">
-        <f>+D261&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F261" s="28" t="s">
@@ -28697,8 +29094,9 @@
       <c r="G261" s="1">
         <v>28305</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H261" s="8"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="24" t="s">
         <v>70</v>
       </c>
@@ -28712,17 +29110,18 @@
         <v>45</v>
       </c>
       <c r="E262" s="1" t="str">
-        <f>+D262&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F262" s="28" t="s">
         <v>138</v>
       </c>
       <c r="G262" s="1">
-        <v>114635.25</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+        <v>114635</v>
+      </c>
+      <c r="H262" s="8"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="24" t="s">
         <v>70</v>
       </c>
@@ -28736,17 +29135,18 @@
         <v>45</v>
       </c>
       <c r="E263" s="1" t="str">
-        <f>+D263&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F263" s="28" t="s">
         <v>138</v>
       </c>
       <c r="G263" s="1">
-        <v>12737.25</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+        <v>12737</v>
+      </c>
+      <c r="H263" s="8"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264" s="24" t="s">
         <v>70</v>
       </c>
@@ -28760,7 +29160,7 @@
         <v>45</v>
       </c>
       <c r="E264" s="1" t="str">
-        <f>+D264&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F264" s="28" t="s">
@@ -28769,8 +29169,9 @@
       <c r="G264" s="1">
         <v>103785</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H264" s="8"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265" s="24" t="s">
         <v>70</v>
       </c>
@@ -28784,22 +29185,18 @@
         <v>45</v>
       </c>
       <c r="E265" s="1" t="str">
-        <f>+D265&amp;"%"</f>
+        <f t="shared" si="12"/>
         <v>45%</v>
       </c>
       <c r="F265" s="28" t="s">
         <v>140</v>
       </c>
       <c r="G265" s="1">
-        <v>46703.25</v>
-      </c>
+        <v>46703</v>
+      </c>
+      <c r="H265" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G265" xr:uid="{85A3A9DC-725A-4BF4-AEAB-B114596BD4F2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G265">
-      <sortCondition ref="F1:F265"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -33702,7 +34099,7 @@
         <v>45</v>
       </c>
       <c r="E194" s="17" t="str">
-        <f t="shared" ref="E194:E234" si="3">+D194&amp;"%"</f>
+        <f t="shared" ref="E194:E219" si="3">+D194&amp;"%"</f>
         <v>45%</v>
       </c>
       <c r="F194" s="19" t="s">
